--- a/dane_1350.xlsx
+++ b/dane_1350.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\prac_inz\one\praca_one\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0124BDAA-0879-41AC-8241-3BAF08DA829E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556FB549-001F-4D56-A652-D5D62186BDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{60509940-0D90-4019-B835-42BF73C3FAF7}"/>
   </bookViews>
@@ -6532,18 +6532,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -6560,7 +6554,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -6897,11 +6891,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD6D79B-7712-4703-8B11-49053041825D}">
   <dimension ref="A1:E540"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A540"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
